--- a/data/Statistics_data.xlsx
+++ b/data/Statistics_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\HaticeFinal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C16ED9-426F-465E-8BE4-E254EB869CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4846E1-D1AD-42D2-B992-7AE3FD3FBCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <t>GDP</t>
   </si>
   <si>
-    <t>CPI_Growth</t>
+    <t>Growth_Rate</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/data/Statistics_data.xlsx
+++ b/data/Statistics_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\HaticeFinal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4846E1-D1AD-42D2-B992-7AE3FD3FBCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A40B6E-A87C-4B7C-853A-CDA6D1CD2E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <t>GDP</t>
   </si>
   <si>
-    <t>Growth_Rate</t>
+    <t>CPI_Growth_Rate</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
